--- a/src/main/resources/passagiere.xlsx
+++ b/src/main/resources/passagiere.xlsx
@@ -4,7 +4,7 @@
   <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="0" windowWidth="10240" windowHeight="4780"/>
+    <workbookView activeTab="0" windowWidth="10240" windowHeight="5500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2" count="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3" count="3">
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>x</t>
   </si>
@@ -78,10 +81,7 @@
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
+  <cellXfs count="1">
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
@@ -94,24 +94,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0" tabSelected="1">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.142308"/>
-    <col min="2" max="2" style="1" width="13.42776" customWidth="1"/>
-    <col min="3" max="3" style="1" width="15.2848" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" style="1" width="10.42794" customWidth="1"/>
-    <col min="5" max="256" style="1"/>
+    <col min="1" max="1" style="0" width="9.142308"/>
+    <col min="2" max="2" style="0" width="13.42776" customWidth="1"/>
+    <col min="3" max="3" style="0" width="15.2848" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" style="0" width="10.42794" customWidth="1"/>
+    <col min="5" max="16384" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13.5">
-      <c r="A1" t="str">
-        <v>ID</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" t="str">
         <v>Fensterplatz</v>
@@ -128,10 +128,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="13.5">
@@ -139,10 +139,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="13.5">
@@ -150,13 +150,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5">
@@ -164,7 +164,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="13.5">
@@ -172,13 +172,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="13.5">
@@ -186,7 +186,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="13.5">
@@ -194,13 +194,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="13.5">
@@ -208,10 +208,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="13.5">
@@ -219,10 +219,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="13.5">
@@ -230,10 +230,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="13.5">
@@ -241,10 +241,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="13.5">
@@ -252,150 +252,863 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="13.5">
       <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="13.5">
       <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="13.5">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="13.5">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="13.5">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="13.5">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="13.5">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="13.5">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="13.5">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="13.5">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="13.5">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="13.5">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="13.5">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="13.5">
       <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="13.5">
       <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="13.5">
       <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="13.5">
       <c r="A30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="13.5">
       <c r="A31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="13.5">
       <c r="A32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="13.5">
       <c r="A33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="13.5">
       <c r="A34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="13.5">
       <c r="A35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="13.5">
       <c r="A36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="13.5">
       <c r="A37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="13.5">
       <c r="A38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="13.5">
       <c r="A39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="13.5">
       <c r="A40">
         <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="13.5">
       <c r="A41">
         <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="13.5">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="13.5">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="13.5">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="13.5">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="13.5">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="13.5">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="13.5">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="13.5">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="13.5">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="13.5">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="13.5">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="13.5">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="13.5">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="13.5">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="13.5">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="13.5">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="13.5">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="13.5">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="13.5">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="13.5">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="13.5">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="13.5">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="13.5">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="13.5">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="13.5">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="13.5">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="13.5">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="13.5">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="13.5">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="13.5">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="13.5">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="13.5">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="13.5">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="13.5">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="13.5">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="13.5">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="13.5">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="13.5">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="13.5">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="13.5">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="13.5">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="13.5">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="13.5">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="13.5">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="13.5">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -423,7 +1136,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="256" style="1"/>
+    <col min="1" max="16384" style="0"/>
   </cols>
   <sheetData/>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
@@ -450,7 +1163,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="256" style="1"/>
+    <col min="1" max="16384" style="0"/>
   </cols>
   <sheetData/>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
